--- a/design/COE开发数据.xlsx
+++ b/design/COE开发数据.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17870"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11625" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11625" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
-    <sheet name="武器" sheetId="2" r:id="rId2"/>
-    <sheet name="防具" sheetId="3" r:id="rId3"/>
-    <sheet name="技能" sheetId="4" r:id="rId4"/>
+    <sheet name="武器 - 剑" sheetId="2" r:id="rId2"/>
+    <sheet name="武器 - 弓" sheetId="5" r:id="rId3"/>
+    <sheet name="武器 - 法杖" sheetId="6" r:id="rId4"/>
+    <sheet name="防具" sheetId="3" r:id="rId5"/>
+    <sheet name="技能" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="110">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,14 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一般</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最被广为使用的铁制武器，多用于防身。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,10 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>使用轻合金打造的武器，便于携带使用。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,10 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>光耀之剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>双刃剑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,7 +183,291 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>星辰之握</t>
+    <t>星寻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终末审判</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰坦之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萤石剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸取生命，伤害的10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸取魔法，伤害的5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流血伤害，每回合损失伤害的5%，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成两次伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更高几率造成必杀伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了增加打击面而特别打磨的双面剑刃。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺客最喜欢使用的武器，但波形剑刃的设计有时也会误伤到自己。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国王赠予的武器，皇室的象征。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用龙骨打造的剑刃，可以对敌人造成持续性伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由地底巨石打磨而成的武器。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用骨牙剑和龙血冶炼而成，灼热的剑身可以造成火焰伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用骨牙剑和冰晶霜铸而成，剑身透着寒气。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用骨牙剑和磁石点化而成，就连使用者都能感受到麻痹感。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊合金锻造而成的武器，剑刃更加锋利。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔化的双剑之一，造成伤害的同时能够恢复生命。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔化的双剑之一，造成伤害的同时能够恢复魔法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终末之时，审判之日。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪耀之剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑身闪耀着光魔法能量的武器。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用萤石精铸而成，拥有光属性的武器。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上古遗留下来的武器，隐藏着什么样的力量不得而知。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石晶簇直接打磨成剑刃，稀世武器。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用魔法的力量來引导水晶生长方向后形成剑刃的外形。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某种野兽牙齿制成的武器，据说非常有血性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜刃强化之后的武器，拥有更高的水属性力量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炽热剑强化之后的武器，拥有更高的火属性力量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷鸣牙强化之后的武器，拥有更高的电属性力量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银色角弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反曲弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韧弩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙脊弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺杀弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗黑弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾风弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴风之击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨角强弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩之击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海之击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狙击长弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦魇长弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斩杀长弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厄尔尼斯长弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守夜人之弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回声之击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风暴之心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐蚀者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更高几率造成必杀伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -231,7 +501,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,6 +511,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,7 +559,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -269,11 +569,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="23">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -281,6 +603,59 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -368,25 +743,47 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A1:I34" totalsRowShown="0" headerRowDxfId="10" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A1:I34" totalsRowShown="0" headerRowDxfId="22" dataDxfId="11">
   <autoFilter ref="A1:I34"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="编号" dataDxfId="9"/>
-    <tableColumn id="2" name="名称" dataDxfId="8"/>
-    <tableColumn id="3" name="类型" dataDxfId="7"/>
-    <tableColumn id="5" name="攻击力" dataDxfId="6"/>
-    <tableColumn id="8" name="速度修正" dataDxfId="5"/>
-    <tableColumn id="9" name="伤害类型" dataDxfId="4"/>
-    <tableColumn id="10" name="附加效果" dataDxfId="3"/>
-    <tableColumn id="6" name="价格" dataDxfId="2"/>
+    <tableColumn id="1" name="编号" dataDxfId="20"/>
+    <tableColumn id="2" name="名称" dataDxfId="19"/>
+    <tableColumn id="3" name="类型" dataDxfId="18"/>
+    <tableColumn id="5" name="攻击力" dataDxfId="17"/>
+    <tableColumn id="8" name="速度修正" dataDxfId="16"/>
+    <tableColumn id="9" name="伤害类型" dataDxfId="15"/>
+    <tableColumn id="10" name="附加效果" dataDxfId="14"/>
+    <tableColumn id="6" name="价格" dataDxfId="13">
+      <calculatedColumnFormula>表2_2[[#This Row],[攻击力]]*25</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="描述" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_24" displayName="表2_24" ref="A1:I34" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I34"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="编号" dataDxfId="8"/>
+    <tableColumn id="2" name="名称" dataDxfId="7"/>
+    <tableColumn id="3" name="类型" dataDxfId="6"/>
+    <tableColumn id="5" name="攻击力" dataDxfId="5"/>
+    <tableColumn id="8" name="速度修正" dataDxfId="4"/>
+    <tableColumn id="9" name="伤害类型" dataDxfId="3"/>
+    <tableColumn id="10" name="附加效果" dataDxfId="2"/>
+    <tableColumn id="6" name="价格" dataDxfId="0">
+      <calculatedColumnFormula>表2_2[[#This Row],[攻击力]]*25</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="4" name="描述" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:J34" totalsRowShown="0" headerRowDxfId="11">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:J34" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="A1:J34"/>
   <tableColumns count="10">
     <tableColumn id="1" name="名称"/>
@@ -732,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -742,14 +1139,15 @@
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="60.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -770,7 +1168,7 @@
         <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>9</v>
@@ -784,7 +1182,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2">
         <v>5</v>
@@ -792,15 +1190,18 @@
       <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>125</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -808,7 +1209,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
@@ -819,15 +1220,18 @@
       <c r="E3" s="2">
         <v>-3</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="2"/>
+      <c r="F3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>300</v>
+      </c>
       <c r="I3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -835,7 +1239,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -846,15 +1250,18 @@
       <c r="E4" s="2">
         <v>3</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2"/>
+      <c r="F4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>250</v>
+      </c>
       <c r="I4" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -862,7 +1269,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -873,15 +1280,18 @@
       <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="2"/>
+      <c r="F5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>625</v>
+      </c>
       <c r="I5" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -889,345 +1299,630 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="D6" s="2">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>375</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="D7" s="2">
+        <v>45</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>1125</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="D8" s="2">
+        <v>55</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>1375</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="D9" s="2">
+        <v>68</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>1700</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="D10" s="2">
+        <v>81</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>2025</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="D11" s="2">
+        <v>89</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>2225</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="D12" s="2">
+        <v>89</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>2225</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="D13" s="2">
+        <v>89</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>2225</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="D14" s="2">
+        <v>95</v>
+      </c>
+      <c r="E14" s="2">
+        <v>-10</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>2375</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="D15" s="2">
+        <v>99</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>2475</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="D16" s="2">
+        <v>99</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>2475</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="D17" s="2">
+        <v>107</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>2675</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="D18" s="2">
+        <v>107</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>2675</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="D19" s="2">
+        <v>107</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>2675</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="D20" s="2">
+        <v>130</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>3250</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="C21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="D21" s="2">
+        <v>120</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>3000</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="C22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="D22" s="2">
+        <v>140</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>3500</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="D23" s="2">
+        <v>158</v>
+      </c>
+      <c r="E23" s="2">
+        <v>-20</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>3950</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="C24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="D24" s="2">
+        <v>180</v>
+      </c>
+      <c r="E24" s="2">
+        <v>5</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>4500</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="D25" s="2">
+        <v>200</v>
+      </c>
+      <c r="E25" s="2">
+        <v>10</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>5000</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="D26" s="2">
+        <v>250</v>
+      </c>
+      <c r="E26" s="2">
+        <v>20</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>6250</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
@@ -1319,15 +2014,1054 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D26">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H26">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{087A8341-5C97-430E-B6C7-A873CE92607B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{087A8341-5C97-430E-B6C7-A873CE92607B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H2:H26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{DEB127AA-99AB-4292-B7F6-95595A4A9308}">
+            <x14:iconSet iconSet="3Triangles">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <x14:cfRule type="iconSet" priority="2" id="{4799B39F-5433-445D-B9E3-A94EB94B0F98}">
+            <x14:iconSet iconSet="3Triangles">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E2:E26</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="69.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="2">
+        <f>表2_24[[#This Row],[攻击力]]*24</f>
+        <v>72</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="2">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>300</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="2">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="2">
+        <f>表2_24[[#This Row],[攻击力]]*24</f>
+        <v>360</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="2">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-20</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>625</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="2">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="2">
+        <f>表2_24[[#This Row],[攻击力]]*24</f>
+        <v>672</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="2">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>1125</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="2">
+        <v>50</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="2">
+        <f>表2_24[[#This Row],[攻击力]]*24</f>
+        <v>1200</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="2">
+        <v>55</v>
+      </c>
+      <c r="E9" s="2">
+        <v>30</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>1700</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="2">
+        <v>70</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="2">
+        <f>表2_24[[#This Row],[攻击力]]*24</f>
+        <v>1680</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="2">
+        <v>80</v>
+      </c>
+      <c r="E11" s="2">
+        <v>50</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>2225</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="2">
+        <v>85</v>
+      </c>
+      <c r="E12" s="2">
+        <v>30</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="2">
+        <f>表2_24[[#This Row],[攻击力]]*24</f>
+        <v>2040</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="2">
+        <v>110</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-50</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>2225</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="2">
+        <v>94</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="2">
+        <f>表2_24[[#This Row],[攻击力]]*24</f>
+        <v>2256</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="2">
+        <v>94</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>2475</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="2">
+        <v>110</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="2">
+        <f>表2_24[[#This Row],[攻击力]]*24</f>
+        <v>2640</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="2">
+        <v>117</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>2675</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="2">
+        <v>125</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="2">
+        <f>表2_24[[#This Row],[攻击力]]*24</f>
+        <v>3000</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="2">
+        <v>120</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>2675</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="2">
+        <v>140</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="2">
+        <f>表2_24[[#This Row],[攻击力]]*24</f>
+        <v>3360</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="2">
+        <v>155</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>3000</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="2">
+        <v>173</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="2">
+        <f>表2_24[[#This Row],[攻击力]]*24</f>
+        <v>4152</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="2">
+        <v>190</v>
+      </c>
+      <c r="E23" s="2">
+        <v>25</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>3950</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="2">
+        <v>215</v>
+      </c>
+      <c r="E24" s="2">
+        <v>50</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="2">
+        <f>表2_24[[#This Row],[攻击力]]*24</f>
+        <v>5160</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="2">
+        <v>240</v>
+      </c>
+      <c r="E25" s="2">
+        <v>-20</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="2">
+        <f>表2_2[[#This Row],[攻击力]]*25</f>
+        <v>5000</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="2">
+        <v>270</v>
+      </c>
+      <c r="E26" s="2">
+        <v>70</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" s="2">
+        <f>表2_24[[#This Row],[攻击力]]*24</f>
+        <v>6480</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="H3 H5 H7 H9 H11 H13 H15 H17 H19 H21 H23 H25">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E7D18F12-FF6D-4AA6-8679-F747D6269018}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D26">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2 H4 H6 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{890A695A-1DF7-4765-9643-D869783A385D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{4E4B47DD-B3D5-4A45-949F-55E72F162965}">
+            <x14:iconSet iconSet="3Triangles">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <x14:cfRule type="iconSet" priority="4" id="{09593883-E3BD-4803-BC4E-DBDB10F566E7}">
+            <x14:iconSet iconSet="3Triangles">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E2:E26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E7D18F12-FF6D-4AA6-8679-F747D6269018}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H3 H5 H7 H9 H11 H13 H15 H17 H19 H21 H23 H25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{890A695A-1DF7-4765-9643-D869783A385D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H2 H4 H6 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1340,7 +3074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
